--- a/Code/Results/Cases/Case_5_132/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_132/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.073614101340752</v>
+        <v>3.229934581839814</v>
       </c>
       <c r="C2">
-        <v>0.8987589232749258</v>
+        <v>0.4056676705255313</v>
       </c>
       <c r="D2">
-        <v>0.005326703920658815</v>
+        <v>0.01145294848190481</v>
       </c>
       <c r="E2">
-        <v>0.01693532743864085</v>
+        <v>0.05052024881184558</v>
       </c>
       <c r="F2">
-        <v>2.347516276311666</v>
+        <v>3.628100717984182</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.180922714724062</v>
+        <v>2.057488557387408</v>
       </c>
       <c r="J2">
-        <v>0.04047615877271049</v>
+        <v>0.1112702309760154</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3775343089640444</v>
+        <v>0.4919442578562752</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.022697363716272</v>
+        <v>2.150983187293836</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.567536037832213</v>
+        <v>3.117137602726928</v>
       </c>
       <c r="C3">
-        <v>0.7764575778613221</v>
+        <v>0.37525515478481</v>
       </c>
       <c r="D3">
-        <v>0.004425833641819921</v>
+        <v>0.01110465608398847</v>
       </c>
       <c r="E3">
-        <v>0.01687732588400531</v>
+        <v>0.05058848726883303</v>
       </c>
       <c r="F3">
-        <v>2.194424572065174</v>
+        <v>3.6154679144136</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.128738086773325</v>
+        <v>2.05879922382119</v>
       </c>
       <c r="J3">
-        <v>0.04150745805436884</v>
+        <v>0.1119254443326474</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.339615104110635</v>
+        <v>0.4853832162082625</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.08362482014973</v>
+        <v>2.174632267203641</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.262132091957312</v>
+        <v>3.049638617032031</v>
       </c>
       <c r="C4">
-        <v>0.7026647741237753</v>
+        <v>0.3568102768785479</v>
       </c>
       <c r="D4">
-        <v>0.003906809860060534</v>
+        <v>0.01088656952492428</v>
       </c>
       <c r="E4">
-        <v>0.01684850358602852</v>
+        <v>0.0506343506248752</v>
       </c>
       <c r="F4">
-        <v>2.105532781300894</v>
+        <v>3.609672594614764</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.099390696552327</v>
+        <v>2.060670984191795</v>
       </c>
       <c r="J4">
-        <v>0.04217500221447601</v>
+        <v>0.1123519967548861</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3168870142310283</v>
+        <v>0.4815950824093278</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.12273430035015</v>
+        <v>2.189888701198647</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.138858295513387</v>
+        <v>3.022573837985476</v>
       </c>
       <c r="C5">
-        <v>0.6728756305765557</v>
+        <v>0.3493507527680038</v>
       </c>
       <c r="D5">
-        <v>0.003702540600949433</v>
+        <v>0.01079659825481194</v>
       </c>
       <c r="E5">
-        <v>0.01683834631847192</v>
+        <v>0.05065403867714025</v>
       </c>
       <c r="F5">
-        <v>2.070487095526147</v>
+        <v>3.607802938907724</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.088057705496993</v>
+        <v>2.06170141970027</v>
       </c>
       <c r="J5">
-        <v>0.04245554121326833</v>
+        <v>0.1125319266524238</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3077511460603262</v>
+        <v>0.4801118100636614</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.13908282202468</v>
+        <v>2.196290577318745</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.118455679510134</v>
+        <v>3.018106405460458</v>
       </c>
       <c r="C6">
-        <v>0.6679449544345175</v>
+        <v>0.34811552594158</v>
       </c>
       <c r="D6">
-        <v>0.003669022229630059</v>
+        <v>0.0107815911958884</v>
       </c>
       <c r="E6">
-        <v>0.01683675238714843</v>
+        <v>0.05065736820472744</v>
       </c>
       <c r="F6">
-        <v>2.064736031899912</v>
+        <v>3.607522164122074</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.086212281647249</v>
+        <v>2.061888671596108</v>
       </c>
       <c r="J6">
-        <v>0.04250263506987384</v>
+        <v>0.1125621729406845</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3062413817901444</v>
+        <v>0.4798691626974261</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.141821859201823</v>
+        <v>2.197364754984271</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.260464998651344</v>
+        <v>3.04927182478616</v>
       </c>
       <c r="C7">
-        <v>0.7022619421924503</v>
+        <v>0.3567094454076027</v>
       </c>
       <c r="D7">
-        <v>0.003904027387283904</v>
+        <v>0.01088536063688217</v>
       </c>
       <c r="E7">
-        <v>0.01684836031975151</v>
+        <v>0.05063461210027898</v>
       </c>
       <c r="F7">
-        <v>2.105055504975169</v>
+        <v>3.60964538936021</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.099235384546347</v>
+        <v>2.060683798037203</v>
       </c>
       <c r="J7">
-        <v>0.0421787513607601</v>
+        <v>0.1123543986160369</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3167633114181427</v>
+        <v>0.4815748338534291</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.122953138302474</v>
+        <v>2.189974291445893</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.897911744177804</v>
+        <v>3.190676688735437</v>
       </c>
       <c r="C8">
-        <v>0.8562910742633107</v>
+        <v>0.3951336593515009</v>
       </c>
       <c r="D8">
-        <v>0.005008153171703</v>
+        <v>0.01133371497453872</v>
       </c>
       <c r="E8">
-        <v>0.01691384260887763</v>
+        <v>0.05054295539599907</v>
       </c>
       <c r="F8">
-        <v>2.293603753524295</v>
+        <v>3.623337128173162</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.162338113693799</v>
+        <v>2.057718632064613</v>
       </c>
       <c r="J8">
-        <v>0.04082455141023011</v>
+        <v>0.1114911210117953</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.364336253119987</v>
+        <v>0.4896321047581154</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.043342096715449</v>
+        <v>2.158984514163457</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.198241375368923</v>
+        <v>3.48197650906593</v>
       </c>
       <c r="C9">
-        <v>1.170927427449953</v>
+        <v>0.4723260261688438</v>
       </c>
       <c r="D9">
-        <v>0.007512366229176948</v>
+        <v>0.01218093158030165</v>
       </c>
       <c r="E9">
-        <v>0.01710236156996769</v>
+        <v>0.05039461646815602</v>
       </c>
       <c r="F9">
-        <v>2.709157226763864</v>
+        <v>3.665808928163017</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.310014610703462</v>
+        <v>2.060401108645536</v>
       </c>
       <c r="J9">
-        <v>0.03844723014137053</v>
+        <v>0.1099902342024475</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4626982849512871</v>
+        <v>0.5073421517624155</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9015234580129246</v>
+        <v>2.104063065235742</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.196815485640229</v>
+        <v>3.704630519717171</v>
       </c>
       <c r="C10">
-        <v>1.413325145414774</v>
+        <v>0.530209519198479</v>
       </c>
       <c r="D10">
-        <v>0.009668286516454572</v>
+        <v>0.01278610244690093</v>
       </c>
       <c r="E10">
-        <v>0.01728771174367127</v>
+        <v>0.05030470144844124</v>
       </c>
       <c r="F10">
-        <v>3.050659691088924</v>
+        <v>3.706630235277146</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.437094101330075</v>
+        <v>2.067598579541325</v>
       </c>
       <c r="J10">
-        <v>0.03687932204974498</v>
+        <v>0.1090040058790036</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5391095918274118</v>
+        <v>0.5215237486772537</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.807309677335752</v>
+        <v>2.067292283782322</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.663719171879507</v>
+        <v>3.807820368240073</v>
       </c>
       <c r="C11">
-        <v>1.526961911559624</v>
+        <v>0.5568069704143568</v>
       </c>
       <c r="D11">
-        <v>0.0107469433191909</v>
+        <v>0.01305814622149093</v>
       </c>
       <c r="E11">
-        <v>0.01738500885403882</v>
+        <v>0.05026792373418676</v>
       </c>
       <c r="F11">
-        <v>3.216012477520138</v>
+        <v>3.727310351989189</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.499971581061061</v>
+        <v>2.072018281737925</v>
       </c>
       <c r="J11">
-        <v>0.0362071599031264</v>
+        <v>0.108580514932866</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5750424227272362</v>
+        <v>0.5282308357392509</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.766944973289732</v>
+        <v>2.051344766703167</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.842653578349484</v>
+        <v>3.847170789188738</v>
       </c>
       <c r="C12">
-        <v>1.570567031852931</v>
+        <v>0.5669177241861121</v>
       </c>
       <c r="D12">
-        <v>0.01117239739398457</v>
+        <v>0.01316073416429653</v>
       </c>
       <c r="E12">
-        <v>0.01742400487435425</v>
+        <v>0.05025458913176695</v>
       </c>
       <c r="F12">
-        <v>3.280271639044599</v>
+        <v>3.735446427469128</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.52461012100683</v>
+        <v>2.073857450026694</v>
       </c>
       <c r="J12">
-        <v>0.03595876263225328</v>
+        <v>0.1084237577117957</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5888439757889472</v>
+        <v>0.530807500847672</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7520507143811699</v>
+        <v>2.045418295349123</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.804016827658984</v>
+        <v>3.838683740470856</v>
       </c>
       <c r="C13">
-        <v>1.561148840489409</v>
+        <v>0.5647384532504134</v>
       </c>
       <c r="D13">
-        <v>0.01107996127637101</v>
+        <v>0.01313865848432982</v>
       </c>
       <c r="E13">
-        <v>0.01741550559903993</v>
+        <v>0.0502574346464475</v>
       </c>
       <c r="F13">
-        <v>3.266355606530311</v>
+        <v>3.733680590397711</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.519265208755314</v>
+        <v>2.073453977717705</v>
       </c>
       <c r="J13">
-        <v>0.03601198260337313</v>
+        <v>0.1084573577537657</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5858624611659309</v>
+        <v>0.5302509307156242</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7552405066420675</v>
+        <v>2.046689656928201</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.678395641461975</v>
+        <v>3.811052240728941</v>
       </c>
       <c r="C14">
-        <v>1.530537287027244</v>
+        <v>0.557638005416436</v>
       </c>
       <c r="D14">
-        <v>0.01078158685390207</v>
+        <v>0.01306659457197767</v>
       </c>
       <c r="E14">
-        <v>0.01738817214266097</v>
+        <v>0.05026681482209083</v>
       </c>
       <c r="F14">
-        <v>3.221264900352509</v>
+        <v>3.727973591158417</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.501981392940877</v>
+        <v>2.07216626928421</v>
       </c>
       <c r="J14">
-        <v>0.03618659973230542</v>
+        <v>0.1085675461185875</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5761738246352621</v>
+        <v>0.5284420809518906</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7657115763343256</v>
+        <v>2.050854935273982</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.601736072421772</v>
+        <v>3.794162947887514</v>
       </c>
       <c r="C15">
-        <v>1.511864341418914</v>
+        <v>0.5532938578671178</v>
       </c>
       <c r="D15">
-        <v>0.01060113074229463</v>
+        <v>0.01302239860807219</v>
       </c>
       <c r="E15">
-        <v>0.01737171914938274</v>
+        <v>0.05027263756380029</v>
       </c>
       <c r="F15">
-        <v>3.193866161460079</v>
+        <v>3.724517649825572</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.491505590893127</v>
+        <v>2.071399090528374</v>
       </c>
       <c r="J15">
-        <v>0.03629436408153452</v>
+        <v>0.1086355095512328</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5702654211854679</v>
+        <v>0.5273389070943466</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.772177363226902</v>
+        <v>2.053420951952681</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.16658225862102</v>
+        <v>3.697925202751264</v>
       </c>
       <c r="C16">
-        <v>1.405973832053746</v>
+        <v>0.5284767187317811</v>
       </c>
       <c r="D16">
-        <v>0.009600002630147486</v>
+        <v>0.01276826159234368</v>
       </c>
       <c r="E16">
-        <v>0.01728163760992296</v>
+        <v>0.05030718789053434</v>
       </c>
       <c r="F16">
-        <v>3.04007170182058</v>
+        <v>3.705321333699089</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.433095096529371</v>
+        <v>2.067332860482907</v>
       </c>
       <c r="J16">
-        <v>0.03692409504368044</v>
+        <v>0.1090321874901754</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5367870371484429</v>
+        <v>0.5210905766147107</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8100004544656869</v>
+        <v>2.068350213968877</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.903076417108821</v>
+        <v>3.639374640396227</v>
       </c>
       <c r="C17">
-        <v>1.341935822051084</v>
+        <v>0.513320772219231</v>
       </c>
       <c r="D17">
-        <v>0.009012853843914925</v>
+        <v>0.01261155118439383</v>
       </c>
       <c r="E17">
-        <v>0.01722988790577912</v>
+        <v>0.05032943929370137</v>
       </c>
       <c r="F17">
-        <v>2.948423249800072</v>
+        <v>3.694086576233985</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.398626951046609</v>
+        <v>2.065132321629747</v>
       </c>
       <c r="J17">
-        <v>0.03732109150461582</v>
+        <v>0.1092819729946388</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5165669419874632</v>
+        <v>0.5173229823737842</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.833864081815598</v>
+        <v>2.077708804767319</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.752684487883926</v>
+        <v>3.605877004758895</v>
       </c>
       <c r="C18">
-        <v>1.305413958197391</v>
+        <v>0.5046284676063806</v>
       </c>
       <c r="D18">
-        <v>0.00868415916407983</v>
+        <v>0.01252110713171106</v>
       </c>
       <c r="E18">
-        <v>0.0172013248929932</v>
+        <v>0.05034262603157957</v>
       </c>
       <c r="F18">
-        <v>2.896637093435203</v>
+        <v>3.687823180579784</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.379272175122168</v>
+        <v>2.063974404798245</v>
       </c>
       <c r="J18">
-        <v>0.0375532855335603</v>
+        <v>0.1094280105793466</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5050455445776549</v>
+        <v>0.5151800362679069</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8478223410660206</v>
+        <v>2.083164983633687</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.701956477599708</v>
+        <v>3.594566012996552</v>
       </c>
       <c r="C19">
-        <v>1.293099199172104</v>
+        <v>0.5016896764706757</v>
       </c>
       <c r="D19">
-        <v>0.008574336151049522</v>
+        <v>0.01249043020283658</v>
       </c>
       <c r="E19">
-        <v>0.01719185249620148</v>
+        <v>0.05034715755605523</v>
       </c>
       <c r="F19">
-        <v>2.87925668310794</v>
+        <v>3.685736556365555</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.372796952540511</v>
+        <v>2.063600840445488</v>
       </c>
       <c r="J19">
-        <v>0.03763255755824169</v>
+        <v>0.1094778632380535</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5011625257671994</v>
+        <v>0.5144586048294428</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8525873879745447</v>
+        <v>2.085024940853721</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.93100389572794</v>
+        <v>3.645588904854037</v>
       </c>
       <c r="C20">
-        <v>1.348719973467951</v>
+        <v>0.5149315571771353</v>
       </c>
       <c r="D20">
-        <v>0.009074403882147308</v>
+        <v>0.01262826491273472</v>
       </c>
       <c r="E20">
-        <v>0.01723527043297068</v>
+        <v>0.05032703041071307</v>
       </c>
       <c r="F20">
-        <v>2.95808197786701</v>
+        <v>3.695261976429805</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.402246782199882</v>
+        <v>2.065355412732458</v>
       </c>
       <c r="J20">
-        <v>0.03727843030734412</v>
+        <v>0.1092551379167244</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5187079821407963</v>
+        <v>0.517721557234637</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8312994709042272</v>
+        <v>2.076704971025244</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.715233199074476</v>
+        <v>3.819160819835133</v>
       </c>
       <c r="C21">
-        <v>1.539512311871704</v>
+        <v>0.5597225188838593</v>
       </c>
       <c r="D21">
-        <v>0.01086874005181748</v>
+        <v>0.01308777282789642</v>
       </c>
       <c r="E21">
-        <v>0.01739613972008835</v>
+        <v>0.05026404356833747</v>
       </c>
       <c r="F21">
-        <v>3.234462750090358</v>
+        <v>3.729641586396241</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.507034732513802</v>
+        <v>2.0725400018042</v>
       </c>
       <c r="J21">
-        <v>0.03613514196664624</v>
+        <v>0.1085350832147416</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5790141078426387</v>
+        <v>0.5289723837995695</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7626250778639374</v>
+        <v>2.04962843550571</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.240351684340681</v>
+        <v>3.934201533063117</v>
       </c>
       <c r="C22">
-        <v>1.667598611746541</v>
+        <v>0.5892229033023</v>
       </c>
       <c r="D22">
-        <v>0.0121421760488456</v>
+        <v>0.01338560466891359</v>
       </c>
       <c r="E22">
-        <v>0.01751398981333085</v>
+        <v>0.05022633016882017</v>
       </c>
       <c r="F22">
-        <v>3.424790316569556</v>
+        <v>3.753888931910978</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.580403382769077</v>
+        <v>2.078200720091772</v>
       </c>
       <c r="J22">
-        <v>0.03542382871957095</v>
+        <v>0.1080855223217867</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6195763751628789</v>
+        <v>0.5365401895165149</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7200397202996598</v>
+        <v>2.032588318796044</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.958821575552292</v>
+        <v>3.872655280549907</v>
       </c>
       <c r="C23">
-        <v>1.598893417146883</v>
+        <v>0.5734570198066535</v>
       </c>
       <c r="D23">
-        <v>0.01145221525154838</v>
+        <v>0.01322686060340672</v>
       </c>
       <c r="E23">
-        <v>0.01744981983126626</v>
+        <v>0.05024614291515661</v>
       </c>
       <c r="F23">
-        <v>3.322246282242418</v>
+        <v>3.740784449413383</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.540761833185471</v>
+        <v>2.075090908019831</v>
       </c>
       <c r="J23">
-        <v>0.03580010309594428</v>
+        <v>0.1083235388166823</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5978129305458424</v>
+        <v>0.5324814421737614</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7425462108629404</v>
+        <v>2.041622798559338</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.918374475844132</v>
+        <v>3.642778925567427</v>
       </c>
       <c r="C24">
-        <v>1.345651948050033</v>
+        <v>0.5142032557759535</v>
       </c>
       <c r="D24">
-        <v>0.009046549711079876</v>
+        <v>0.01262070972625118</v>
       </c>
       <c r="E24">
-        <v>0.0172328333110206</v>
+        <v>0.05032811823910222</v>
       </c>
       <c r="F24">
-        <v>2.95371246706938</v>
+        <v>3.694729968814357</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.400608826654775</v>
+        <v>2.065254219393822</v>
       </c>
       <c r="J24">
-        <v>0.03729770513109099</v>
+        <v>0.1092672624778146</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5177396977174027</v>
+        <v>0.5175412896108185</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8324581902645605</v>
+        <v>2.07715856818826</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.83987267186734</v>
+        <v>3.401662852223637</v>
       </c>
       <c r="C25">
-        <v>1.084120079062188</v>
+        <v>0.4512413664301107</v>
       </c>
       <c r="D25">
-        <v>0.006788225813938453</v>
+        <v>0.01195493421160165</v>
       </c>
       <c r="E25">
-        <v>0.01704396961516913</v>
+        <v>0.05043139226766868</v>
       </c>
       <c r="F25">
-        <v>2.591038191191004</v>
+        <v>3.652637135319623</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.267117597919409</v>
+        <v>2.058760982826939</v>
       </c>
       <c r="J25">
-        <v>0.03905969143425292</v>
+        <v>0.110375768888141</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4354442730935517</v>
+        <v>0.5023460782419562</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9382371283349826</v>
+        <v>2.118293131375822</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_132/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_132/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.229934581839814</v>
+        <v>4.073614101340866</v>
       </c>
       <c r="C2">
-        <v>0.4056676705255313</v>
+        <v>0.8987589232753805</v>
       </c>
       <c r="D2">
-        <v>0.01145294848190481</v>
+        <v>0.005326703920784936</v>
       </c>
       <c r="E2">
-        <v>0.05052024881184558</v>
+        <v>0.01693532743861681</v>
       </c>
       <c r="F2">
-        <v>3.628100717984182</v>
+        <v>2.347516276311694</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.057488557387408</v>
+        <v>1.180922714724076</v>
       </c>
       <c r="J2">
-        <v>0.1112702309760154</v>
+        <v>0.04047615877267319</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4919442578562752</v>
+        <v>0.3775343089640728</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.150983187293836</v>
+        <v>1.022697363716301</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.117137602726928</v>
+        <v>3.567536037832213</v>
       </c>
       <c r="C3">
-        <v>0.37525515478481</v>
+        <v>0.7764575778613221</v>
       </c>
       <c r="D3">
-        <v>0.01110465608398847</v>
+        <v>0.004425833641715116</v>
       </c>
       <c r="E3">
-        <v>0.05058848726883303</v>
+        <v>0.0168773258839886</v>
       </c>
       <c r="F3">
-        <v>3.6154679144136</v>
+        <v>2.194424572065159</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.05879922382119</v>
+        <v>1.128738086773325</v>
       </c>
       <c r="J3">
-        <v>0.1119254443326474</v>
+        <v>0.04150745805441147</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4853832162082625</v>
+        <v>0.3396151041106918</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.174632267203641</v>
+        <v>1.083624820149783</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.049638617032031</v>
+        <v>3.262132091957312</v>
       </c>
       <c r="C4">
-        <v>0.3568102768785479</v>
+        <v>0.7026647741237468</v>
       </c>
       <c r="D4">
-        <v>0.01088656952492428</v>
+        <v>0.003906809859728355</v>
       </c>
       <c r="E4">
-        <v>0.0506343506248752</v>
+        <v>0.01684850358601242</v>
       </c>
       <c r="F4">
-        <v>3.609672594614764</v>
+        <v>2.105532781300909</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.060670984191795</v>
+        <v>1.099390696552362</v>
       </c>
       <c r="J4">
-        <v>0.1123519967548861</v>
+        <v>0.04217500221447956</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4815950824093278</v>
+        <v>0.3168870142310567</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.189888701198647</v>
+        <v>1.122734300350153</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.022573837985476</v>
+        <v>3.138858295513387</v>
       </c>
       <c r="C5">
-        <v>0.3493507527680038</v>
+        <v>0.6728756305766979</v>
       </c>
       <c r="D5">
-        <v>0.01079659825481194</v>
+        <v>0.003702540600849957</v>
       </c>
       <c r="E5">
-        <v>0.05065403867714025</v>
+        <v>0.01683834631844594</v>
       </c>
       <c r="F5">
-        <v>3.607802938907724</v>
+        <v>2.070487095526133</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.06170141970027</v>
+        <v>1.088057705496986</v>
       </c>
       <c r="J5">
-        <v>0.1125319266524238</v>
+        <v>0.0424555412132559</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4801118100636614</v>
+        <v>0.3077511460602409</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.196290577318745</v>
+        <v>1.139082822024577</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.018106405460458</v>
+        <v>3.118455679510078</v>
       </c>
       <c r="C6">
-        <v>0.34811552594158</v>
+        <v>0.6679449544345459</v>
       </c>
       <c r="D6">
-        <v>0.0107815911958884</v>
+        <v>0.003669022229509267</v>
       </c>
       <c r="E6">
-        <v>0.05065736820472744</v>
+        <v>0.01683675238714943</v>
       </c>
       <c r="F6">
-        <v>3.607522164122074</v>
+        <v>2.064736031899884</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.061888671596108</v>
+        <v>1.086212281647249</v>
       </c>
       <c r="J6">
-        <v>0.1125621729406845</v>
+        <v>0.04250263506987384</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4798691626974261</v>
+        <v>0.3062413817901017</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.197364754984271</v>
+        <v>1.141821859201876</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.04927182478616</v>
+        <v>3.260464998651457</v>
       </c>
       <c r="C7">
-        <v>0.3567094454076027</v>
+        <v>0.7022619421924503</v>
       </c>
       <c r="D7">
-        <v>0.01088536063688217</v>
+        <v>0.003904027387063636</v>
       </c>
       <c r="E7">
-        <v>0.05063461210027898</v>
+        <v>0.01684836031972325</v>
       </c>
       <c r="F7">
-        <v>3.60964538936021</v>
+        <v>2.105055504975184</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.060683798037203</v>
+        <v>1.099235384546354</v>
       </c>
       <c r="J7">
-        <v>0.1123543986160369</v>
+        <v>0.0421787513608578</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4815748338534291</v>
+        <v>0.3167633114180575</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.189974291445893</v>
+        <v>1.122953138302393</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.190676688735437</v>
+        <v>3.897911744177804</v>
       </c>
       <c r="C8">
-        <v>0.3951336593515009</v>
+        <v>0.8562910742635097</v>
       </c>
       <c r="D8">
-        <v>0.01133371497453872</v>
+        <v>0.005008153171694119</v>
       </c>
       <c r="E8">
-        <v>0.05054295539599907</v>
+        <v>0.01691384260888906</v>
       </c>
       <c r="F8">
-        <v>3.623337128173162</v>
+        <v>2.293603753524295</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.057718632064613</v>
+        <v>1.162338113693778</v>
       </c>
       <c r="J8">
-        <v>0.1114911210117953</v>
+        <v>0.0408245514101484</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4896321047581154</v>
+        <v>0.3643362531198733</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.158984514163457</v>
+        <v>1.043342096715421</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.48197650906593</v>
+        <v>5.198241375368752</v>
       </c>
       <c r="C9">
-        <v>0.4723260261688438</v>
+        <v>1.170927427450124</v>
       </c>
       <c r="D9">
-        <v>0.01218093158030165</v>
+        <v>0.007512366229182277</v>
       </c>
       <c r="E9">
-        <v>0.05039461646815602</v>
+        <v>0.01710236156996819</v>
       </c>
       <c r="F9">
-        <v>3.665808928163017</v>
+        <v>2.709157226763864</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.060401108645536</v>
+        <v>1.310014610703462</v>
       </c>
       <c r="J9">
-        <v>0.1099902342024475</v>
+        <v>0.0384472301414851</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5073421517624155</v>
+        <v>0.4626982849513439</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.104063065235742</v>
+        <v>0.9015234580129246</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.704630519717171</v>
+        <v>6.1968154856404</v>
       </c>
       <c r="C10">
-        <v>0.530209519198479</v>
+        <v>1.413325145414774</v>
       </c>
       <c r="D10">
-        <v>0.01278610244690093</v>
+        <v>0.009668286516571811</v>
       </c>
       <c r="E10">
-        <v>0.05030470144844124</v>
+        <v>0.01728771174370203</v>
       </c>
       <c r="F10">
-        <v>3.706630235277146</v>
+        <v>3.050659691088896</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.067598579541325</v>
+        <v>1.437094101330047</v>
       </c>
       <c r="J10">
-        <v>0.1090040058790036</v>
+        <v>0.03687932204974409</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5215237486772537</v>
+        <v>0.5391095918274686</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.067292283782322</v>
+        <v>0.8073096773357875</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.807820368240073</v>
+        <v>6.663719171879677</v>
       </c>
       <c r="C11">
-        <v>0.5568069704143568</v>
+        <v>1.526961911559454</v>
       </c>
       <c r="D11">
-        <v>0.01305814622149093</v>
+        <v>0.01074694331927617</v>
       </c>
       <c r="E11">
-        <v>0.05026792373418676</v>
+        <v>0.01738500885409322</v>
       </c>
       <c r="F11">
-        <v>3.727310351989189</v>
+        <v>3.21601247752011</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.072018281737925</v>
+        <v>1.499971581061075</v>
       </c>
       <c r="J11">
-        <v>0.108580514932866</v>
+        <v>0.03620715990309442</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5282308357392509</v>
+        <v>0.5750424227273072</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.051344766703167</v>
+        <v>0.7669449732897036</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.847170789188738</v>
+        <v>6.842653578349598</v>
       </c>
       <c r="C12">
-        <v>0.5669177241861121</v>
+        <v>1.570567031853159</v>
       </c>
       <c r="D12">
-        <v>0.01316073416429653</v>
+        <v>0.01117239739396503</v>
       </c>
       <c r="E12">
-        <v>0.05025458913176695</v>
+        <v>0.01742400487435303</v>
       </c>
       <c r="F12">
-        <v>3.735446427469128</v>
+        <v>3.280271639044599</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.073857450026694</v>
+        <v>1.524610121006816</v>
       </c>
       <c r="J12">
-        <v>0.1084237577117957</v>
+        <v>0.0359587626323723</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.530807500847672</v>
+        <v>0.5888439757889046</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.045418295349123</v>
+        <v>0.7520507143812125</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.838683740470856</v>
+        <v>6.804016827659098</v>
       </c>
       <c r="C13">
-        <v>0.5647384532504134</v>
+        <v>1.561148840489523</v>
       </c>
       <c r="D13">
-        <v>0.01313865848432982</v>
+        <v>0.01107996127648114</v>
       </c>
       <c r="E13">
-        <v>0.0502574346464475</v>
+        <v>0.01741550559900018</v>
       </c>
       <c r="F13">
-        <v>3.733680590397711</v>
+        <v>3.266355606530368</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.073453977717705</v>
+        <v>1.519265208755314</v>
       </c>
       <c r="J13">
-        <v>0.1084573577537657</v>
+        <v>0.03601198260347083</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5302509307156242</v>
+        <v>0.5858624611659735</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.046689656928201</v>
+        <v>0.7552405066421031</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.811052240728941</v>
+        <v>6.678395641461918</v>
       </c>
       <c r="C14">
-        <v>0.557638005416436</v>
+        <v>1.530537287026903</v>
       </c>
       <c r="D14">
-        <v>0.01306659457197767</v>
+        <v>0.01078158685401753</v>
       </c>
       <c r="E14">
-        <v>0.05026681482209083</v>
+        <v>0.01738817214266164</v>
       </c>
       <c r="F14">
-        <v>3.727973591158417</v>
+        <v>3.221264900352537</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.07216626928421</v>
+        <v>1.501981392940863</v>
       </c>
       <c r="J14">
-        <v>0.1085675461185875</v>
+        <v>0.03618659973231075</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5284420809518906</v>
+        <v>0.5761738246352479</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.050854935273982</v>
+        <v>0.7657115763343327</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.794162947887514</v>
+        <v>6.601736072421659</v>
       </c>
       <c r="C15">
-        <v>0.5532938578671178</v>
+        <v>1.511864341418402</v>
       </c>
       <c r="D15">
-        <v>0.01302239860807219</v>
+        <v>0.01060113074242075</v>
       </c>
       <c r="E15">
-        <v>0.05027263756380029</v>
+        <v>0.01737171914935476</v>
       </c>
       <c r="F15">
-        <v>3.724517649825572</v>
+        <v>3.193866161460079</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.071399090528374</v>
+        <v>1.491505590893112</v>
       </c>
       <c r="J15">
-        <v>0.1086355095512328</v>
+        <v>0.03629436408154874</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5273389070943466</v>
+        <v>0.5702654211854821</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.053420951952681</v>
+        <v>0.7721773632269233</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.697925202751264</v>
+        <v>6.166582258621077</v>
       </c>
       <c r="C16">
-        <v>0.5284767187317811</v>
+        <v>1.405973832053974</v>
       </c>
       <c r="D16">
-        <v>0.01276826159234368</v>
+        <v>0.009600002630147486</v>
       </c>
       <c r="E16">
-        <v>0.05030718789053434</v>
+        <v>0.0172816376098972</v>
       </c>
       <c r="F16">
-        <v>3.705321333699089</v>
+        <v>3.040071701820608</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.067332860482907</v>
+        <v>1.433095096529357</v>
       </c>
       <c r="J16">
-        <v>0.1090321874901754</v>
+        <v>0.03692409504363781</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5210905766147107</v>
+        <v>0.5367870371484429</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.068350213968877</v>
+        <v>0.810000454465694</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.639374640396227</v>
+        <v>5.903076417108821</v>
       </c>
       <c r="C17">
-        <v>0.513320772219231</v>
+        <v>1.341935822050743</v>
       </c>
       <c r="D17">
-        <v>0.01261155118439383</v>
+        <v>0.009012853843909596</v>
       </c>
       <c r="E17">
-        <v>0.05032943929370137</v>
+        <v>0.01722988790571756</v>
       </c>
       <c r="F17">
-        <v>3.694086576233985</v>
+        <v>2.948423249800101</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.065132321629747</v>
+        <v>1.398626951046623</v>
       </c>
       <c r="J17">
-        <v>0.1092819729946388</v>
+        <v>0.03732109150471352</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5173229823737842</v>
+        <v>0.5165669419873211</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.077708804767319</v>
+        <v>0.8338640818155909</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.605877004758895</v>
+        <v>5.752684487884096</v>
       </c>
       <c r="C18">
-        <v>0.5046284676063806</v>
+        <v>1.305413958197391</v>
       </c>
       <c r="D18">
-        <v>0.01252110713171106</v>
+        <v>0.008684159164207728</v>
       </c>
       <c r="E18">
-        <v>0.05034262603157957</v>
+        <v>0.01720132489302545</v>
       </c>
       <c r="F18">
-        <v>3.687823180579784</v>
+        <v>2.896637093435231</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.063974404798245</v>
+        <v>1.379272175122182</v>
       </c>
       <c r="J18">
-        <v>0.1094280105793466</v>
+        <v>0.03755328553358162</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5151800362679069</v>
+        <v>0.5050455445775412</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.083164983633687</v>
+        <v>0.8478223410660348</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.594566012996552</v>
+        <v>5.701956477599538</v>
       </c>
       <c r="C19">
-        <v>0.5016896764706757</v>
+        <v>1.293099199172218</v>
       </c>
       <c r="D19">
-        <v>0.01249043020283658</v>
+        <v>0.008574336151044193</v>
       </c>
       <c r="E19">
-        <v>0.05034715755605523</v>
+        <v>0.01719185249620164</v>
       </c>
       <c r="F19">
-        <v>3.685736556365555</v>
+        <v>2.879256683107997</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.063600840445488</v>
+        <v>1.372796952540511</v>
       </c>
       <c r="J19">
-        <v>0.1094778632380535</v>
+        <v>0.03763255755818218</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5144586048294428</v>
+        <v>0.5011625257671994</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.085024940853721</v>
+        <v>0.8525873879745518</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.645588904854037</v>
+        <v>5.93100389572777</v>
       </c>
       <c r="C20">
-        <v>0.5149315571771353</v>
+        <v>1.348719973467496</v>
       </c>
       <c r="D20">
-        <v>0.01262826491273472</v>
+        <v>0.009074403882259219</v>
       </c>
       <c r="E20">
-        <v>0.05032703041071307</v>
+        <v>0.01723527043296685</v>
       </c>
       <c r="F20">
-        <v>3.695261976429805</v>
+        <v>2.958081977867039</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.065355412732458</v>
+        <v>1.402246782199882</v>
       </c>
       <c r="J20">
-        <v>0.1092551379167244</v>
+        <v>0.03727843030725886</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.517721557234637</v>
+        <v>0.5187079821407963</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.076704971025244</v>
+        <v>0.8312994709042201</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.819160819835133</v>
+        <v>6.715233199074589</v>
       </c>
       <c r="C21">
-        <v>0.5597225188838593</v>
+        <v>1.539512311871363</v>
       </c>
       <c r="D21">
-        <v>0.01308777282789642</v>
+        <v>0.01086874005181038</v>
       </c>
       <c r="E21">
-        <v>0.05026404356833747</v>
+        <v>0.01739613972008447</v>
       </c>
       <c r="F21">
-        <v>3.729641586396241</v>
+        <v>3.234462750090358</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.0725400018042</v>
+        <v>1.507034732513816</v>
       </c>
       <c r="J21">
-        <v>0.1085350832147416</v>
+        <v>0.0361351419666871</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5289723837995695</v>
+        <v>0.5790141078427382</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.04962843550571</v>
+        <v>0.7626250778639232</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.934201533063117</v>
+        <v>7.240351684340681</v>
       </c>
       <c r="C22">
-        <v>0.5892229033023</v>
+        <v>1.667598611746541</v>
       </c>
       <c r="D22">
-        <v>0.01338560466891359</v>
+        <v>0.01214217604884915</v>
       </c>
       <c r="E22">
-        <v>0.05022633016882017</v>
+        <v>0.0175139898133263</v>
       </c>
       <c r="F22">
-        <v>3.753888931910978</v>
+        <v>3.424790316569556</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.078200720091772</v>
+        <v>1.580403382769063</v>
       </c>
       <c r="J22">
-        <v>0.1080855223217867</v>
+        <v>0.03542382871968464</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5365401895165149</v>
+        <v>0.6195763751629215</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.032588318796044</v>
+        <v>0.7200397202996385</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.872655280549907</v>
+        <v>6.958821575552236</v>
       </c>
       <c r="C23">
-        <v>0.5734570198066535</v>
+        <v>1.59889341714694</v>
       </c>
       <c r="D23">
-        <v>0.01322686060340672</v>
+        <v>0.0114522152511789</v>
       </c>
       <c r="E23">
-        <v>0.05024614291515661</v>
+        <v>0.01744981983126093</v>
       </c>
       <c r="F23">
-        <v>3.740784449413383</v>
+        <v>3.322246282242418</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.075090908019831</v>
+        <v>1.540761833185513</v>
       </c>
       <c r="J23">
-        <v>0.1083235388166823</v>
+        <v>0.03580010309579684</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5324814421737614</v>
+        <v>0.597812930545885</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.041622798559338</v>
+        <v>0.7425462108629333</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.642778925567427</v>
+        <v>5.918374475844189</v>
       </c>
       <c r="C24">
-        <v>0.5142032557759535</v>
+        <v>1.345651948050374</v>
       </c>
       <c r="D24">
-        <v>0.01262070972625118</v>
+        <v>0.009046549711310803</v>
       </c>
       <c r="E24">
-        <v>0.05032811823910222</v>
+        <v>0.01723283331101616</v>
       </c>
       <c r="F24">
-        <v>3.694729968814357</v>
+        <v>2.953712467069352</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.065254219393822</v>
+        <v>1.400608826654789</v>
       </c>
       <c r="J24">
-        <v>0.1092672624778146</v>
+        <v>0.03729770513113984</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5175412896108185</v>
+        <v>0.5177396977175022</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.07715856818826</v>
+        <v>0.8324581902646244</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.401662852223637</v>
+        <v>4.839872671867226</v>
       </c>
       <c r="C25">
-        <v>0.4512413664301107</v>
+        <v>1.084120079061904</v>
       </c>
       <c r="D25">
-        <v>0.01195493421160165</v>
+        <v>0.006788225813707527</v>
       </c>
       <c r="E25">
-        <v>0.05043139226766868</v>
+        <v>0.01704396961516735</v>
       </c>
       <c r="F25">
-        <v>3.652637135319623</v>
+        <v>2.591038191191004</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.058760982826939</v>
+        <v>1.267117597919395</v>
       </c>
       <c r="J25">
-        <v>0.110375768888141</v>
+        <v>0.03905969143424315</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5023460782419562</v>
+        <v>0.4354442730936086</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.118293131375822</v>
+        <v>0.9382371283349684</v>
       </c>
       <c r="O25">
         <v>0</v>
